--- a/medicine/Enfance/Pierre-Olivier_Vincent/Pierre-Olivier_Vincent.xlsx
+++ b/medicine/Enfance/Pierre-Olivier_Vincent/Pierre-Olivier_Vincent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,10 +518,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre-Olivier Vincent commence sa carrière en réalisant diverses couvertures et illustrations pour des revues (Casus Belli) et des livres (notamment des romans de science-fiction tels que Raz de marée sur Aquarius de Monica Hughes). Il travaille également en tant que designer au sein des studios Gaumont[1].
-Son ascension débute réellement lorsqu'il est remarqué et choisi pour travailler à la réalisation de dessins animés et de films d'animation au sein de la DreamWorks Animation (Los Angeles), une division de la célèbre société américaine DreamWorks SKG, créée par Steven Spielberg. Il y débute le 1er janvier 1998[1] et son travail a depuis été reconnu par les Annie Award, cérémonie de référence dans le monde de l'animation.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre-Olivier Vincent commence sa carrière en réalisant diverses couvertures et illustrations pour des revues (Casus Belli) et des livres (notamment des romans de science-fiction tels que Raz de marée sur Aquarius de Monica Hughes). Il travaille également en tant que designer au sein des studios Gaumont.
+Son ascension débute réellement lorsqu'il est remarqué et choisi pour travailler à la réalisation de dessins animés et de films d'animation au sein de la DreamWorks Animation (Los Angeles), une division de la célèbre société américaine DreamWorks SKG, créée par Steven Spielberg. Il y débute le 1er janvier 1998 et son travail a depuis été reconnu par les Annie Award, cérémonie de référence dans le monde de l'animation.
 Pierre-Olivier Vincent fait également partie des illustrateurs de la collection Bibliothèque verte des éditions Hachette.
 </t>
         </is>
@@ -539,7 +553,9 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Route d'Eldorado (The Road to El Dorado), 2000, layout artist.
 Spirit, l'étalon des plaines (Spirit : Stallion of the Cimarron), 2002, designer en effets visuels.
@@ -573,10 +589,12 @@
           <t>Nominations et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2004 : nomination aux Annie Award (32e cérémonie) dans la catégorie Production Design in an Animated Feature Production pour le film Gang de requins[2].
-2006 : Victoire aux Annie Award (34e cérémonie) dans la catégorie Production Design in an Animated Feature Production pour Souris City[3].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2004 : nomination aux Annie Award (32e cérémonie) dans la catégorie Production Design in an Animated Feature Production pour le film Gang de requins.
+2006 : Victoire aux Annie Award (34e cérémonie) dans la catégorie Production Design in an Animated Feature Production pour Souris City.</t>
         </is>
       </c>
     </row>
